--- a/streamlit/comprar_homegate_geneve.xlsx
+++ b/streamlit/comprar_homegate_geneve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>133m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:14</t>
+          <t>2024-08-15 14:36:45</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>135m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:15</t>
+          <t>2024-08-15 14:36:46</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>74m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:16</t>
+          <t>2024-08-15 14:36:48</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:17</t>
+          <t>2024-08-15 14:36:49</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>192m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:18</t>
+          <t>2024-08-15 14:36:50</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>139m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:19</t>
+          <t>2024-08-15 14:36:51</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:21</t>
+          <t>2024-08-15 14:36:52</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>55m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:22</t>
+          <t>2024-08-15 14:36:53</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>109m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:23</t>
+          <t>2024-08-15 14:36:54</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>220m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:24</t>
+          <t>2024-08-15 14:36:55</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>179m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:25</t>
+          <t>2024-08-15 14:36:57</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:26</t>
+          <t>2024-08-15 14:36:58</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>200m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:27</t>
+          <t>2024-08-15 14:36:59</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>200m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:28</t>
+          <t>2024-08-15 14:37:00</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>118m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:29</t>
+          <t>2024-08-15 14:37:01</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:30</t>
+          <t>2024-08-15 14:37:02</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>33m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:32</t>
+          <t>2024-08-15 14:37:03</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>130m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:33</t>
+          <t>2024-08-15 14:37:04</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>521m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:34</t>
+          <t>2024-08-15 14:37:05</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>72m²</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1206,7 +1206,747 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-08-15 14:10:35</t>
+          <t>2024-08-15 14:37:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Résidence au bord de la Seymaz</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CHF 1,690,000.–</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Chêne-Bougeries, 1224 Chêne-Bougeries</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001377971</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Entre le parc Bertrand et les HUG</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CHF 1,670,000.–</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Genève, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001374783</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dans le centre du village - CASATAX</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CHF 890,000.–</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Meinier, 1252 Meinier</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001348101</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Appartement contemporain HPE à proximité directe du Léman Express</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CHF 1,550,000.–</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Grand-Lancy, 1212 Grand-Lancy</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001282240</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Résidence Le Vallon</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CHF 1,795,000.–</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Chêne-Bougeries, 1224 Chêne-Bougeries</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001259891</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A Sézegnin</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CHF 1,395,000.–</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Athenaz (Avusy), 1285 Athenaz (Avusy)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001236787</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Opportunité CASATAX</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CHF 1,359,000.–</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>La Croix-de-Rozon, 1257 La Croix-de-Rozon</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001229732</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>The Residence</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CHF 1,675,000.–</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Genève, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001158938</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A quelques pas du village - CASATAX</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CHF 1,295,000.–</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Confignon, 1232 Confignon</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001355446</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Charmant appartement de 4 pièces à Bernex ! En exclusivité !</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CHF 769,000.–</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Chemin de Saule 88, 1233 Bernex</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001287521</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UN neighbourhood - Close to Trembley Park</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CHF 1,850,000.–</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Geneva, 1202 Geneva</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001380384</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Superbe appartement - Genève</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CHF 1,360,000.–</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Malagnou, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001333391</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Appartement traversant - Cologny</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CHF 1,850,000.–</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Résidence La Planta, 1223 Cologny</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001285514</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Appartement somptueux - Genève</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CHF 1,990,000.–</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Petit-Saconnex, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001245026</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Appartement spacieux - Genève</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CHF 2,550,000.–</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>La Tourelle, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001225270</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Charmant appartement - Bernex</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CHF 1,690,000.–</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Au centre du village, 1233 Bernex</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001080164</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Appartement lumineux - Genève</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CHF 5,490,000.–</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Champel, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001072080</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Luxueux Hôtel Particulier avec piscine et jardin, face au lac</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Price on request</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1223 Cologny</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001062132</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Bel appartement - Chêne-Bourg</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CHF 1,450,000.–</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Aux abords de la gare de Chêne-Bourg, 1225 Chêne-Bourg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4001026357</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ATTIQUE contemporain CASATAX de 3.5 pièces avec vue sur le Mont-Blanc, avec grande terrasse de 42m2</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CHF 1,295,000.–</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Chemin des Champs-Nouveaux 7, 1252 Meinier</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/buy/4000833276</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:37:40</t>
         </is>
       </c>
     </row>
